--- a/doc/devices_batchs_export_20180111_1(1).xlsx
+++ b/doc/devices_batchs_export_20180111_1(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="0" windowWidth="26220" windowHeight="11100"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="26220" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>编号</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,6 +754,9 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">

--- a/doc/devices_batchs_export_20180111_1(1).xlsx
+++ b/doc/devices_batchs_export_20180111_1(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="26220" windowHeight="11100"/>
+    <workbookView xWindow="5625" yWindow="0" windowWidth="26220" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>编号</t>
   </si>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzy程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +626,7 @@
     <col min="1" max="1" width="18" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -637,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -645,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -653,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -661,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -669,15 +677,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -693,7 +707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -701,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -720,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -728,7 +742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -739,7 +753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -747,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
